--- a/Webseitenlinks.xlsx
+++ b/Webseitenlinks.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kionex\Desktop\Diplomarbeit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kionex\Desktop\ImportantStuffDiplomarbeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Link</t>
   </si>
@@ -63,6 +63,30 @@
   </si>
   <si>
     <t>Working with Content (CMIS)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wJELbDUGexw</t>
+  </si>
+  <si>
+    <t>Alfresco Summit: Building your CMIS Toolkit (Eclipse)</t>
+  </si>
+  <si>
+    <t>https://github.com/dkd/php-cmis-client</t>
+  </si>
+  <si>
+    <t>Clonen eines Git-Repository mit examples</t>
+  </si>
+  <si>
+    <t>https://getcomposer.org/download/</t>
+  </si>
+  <si>
+    <t>Herunterladen von Composer</t>
+  </si>
+  <si>
+    <t>https://getcomposer.org/doc/01-basic-usage.md#autoloading</t>
+  </si>
+  <si>
+    <t>Basic Usage of Composer</t>
   </si>
 </sst>
 </file>
@@ -78,15 +102,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -174,11 +204,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -208,6 +249,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -551,14 +599,14 @@
   <dimension ref="B1:E143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="74" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="42.7109375" customWidth="1"/>
+    <col min="5" max="5" width="50" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -613,7 +661,7 @@
       <c r="D4" s="10">
         <v>0.55069444444444449</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="11" t="s">
         <v>9</v>
       </c>
     </row>
@@ -633,45 +681,77 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C6" s="9">
         <v>42934</v>
       </c>
       <c r="D6" s="10">
+        <v>0.58194444444444449</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="9">
+        <v>42934</v>
+      </c>
+      <c r="D7" s="10">
         <v>0.60138888888888886</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-    </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="9">
+        <v>42934</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0.62986111111111109</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="B9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="12">
+        <v>42934</v>
+      </c>
+      <c r="D9" s="13">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="B10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="9">
+        <v>42934</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0.63958333333333328</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+      <c r="C11" s="9"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
@@ -1469,6 +1549,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Webseitenlinks.xlsx
+++ b/Webseitenlinks.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="20115" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="20115" windowHeight="7935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -17,11 +17,12 @@
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027" concurrentCalc="0"/>
+  <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>Link</t>
   </si>
@@ -87,16 +88,162 @@
   </si>
   <si>
     <t>Basic Usage of Composer</t>
+  </si>
+  <si>
+    <t>http://docs.alfresco.com/4.2/pra/1/concepts/pra-refresh-token.html</t>
+  </si>
+  <si>
+    <t>Refreshing an Access Token</t>
+  </si>
+  <si>
+    <t>http://docs.alfresco.com/4.2/pra/1/concepts/pra-authorize.html</t>
+  </si>
+  <si>
+    <t>Authorization</t>
+  </si>
+  <si>
+    <t>https://www.video2brain.com/de/tutorial/was-ist-die-api-und-wofuer-ist-sie-gut</t>
+  </si>
+  <si>
+    <t>Was ist die API und wofür ist sie gut? (WordPress)</t>
+  </si>
+  <si>
+    <t>https://www.video2brain.com/de/tutorial/installation-der-wp-rest-api-und-hallo-welt</t>
+  </si>
+  <si>
+    <t>Installation der WP REST API und Hallo Welt</t>
+  </si>
+  <si>
+    <t>https://www.video2brain.com/de/tutorial/mit-der-app-postman-die-api-bequem-nutzen</t>
+  </si>
+  <si>
+    <t>Mit der App Postman die API bequem nutzen</t>
+  </si>
+  <si>
+    <t>https://www.video2brain.com/de/tutorial/daten-mit-der-api-lesen-und-filtern</t>
+  </si>
+  <si>
+    <t>Daten mit der API lesen und filtern</t>
+  </si>
+  <si>
+    <t>https://www.video2brain.com/de/tutorial/daten-ueber-die-api-mit-php-lesen</t>
+  </si>
+  <si>
+    <t>Daten über die API mit PHP lesen</t>
+  </si>
+  <si>
+    <t>http://docs.alfresco.com/5.0/pra/1/concepts/pra-authentication-onpremise.html</t>
+  </si>
+  <si>
+    <t>Authentication for on-premise Alfresco</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Basic_access_authentication</t>
+  </si>
+  <si>
+    <t>Basic Access Authentication</t>
+  </si>
+  <si>
+    <t>https://lornajane.net/posts/2008/using-curl-and-php-to-talk-to-a-rest-service</t>
+  </si>
+  <si>
+    <t>Using curl and php to talk to a rest service</t>
+  </si>
+  <si>
+    <t>http://codular.com/curl-with-php</t>
+  </si>
+  <si>
+    <t>cURL Requests with PHP</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/2140419/how-do-i-make-a-request-using-http-basic-authentication-with-php-curl</t>
+  </si>
+  <si>
+    <t>request using HTTP basic authentication with PHP curl?</t>
+  </si>
+  <si>
+    <t>https://api-explorer.alfresco.com/api-explorer/#/</t>
+  </si>
+  <si>
+    <t>Alfresco API Explorer</t>
+  </si>
+  <si>
+    <t>http://php.net/manual/de/function.curl-setopt.php</t>
+  </si>
+  <si>
+    <t>cURL_setopt</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/alfresco/service/index</t>
+  </si>
+  <si>
+    <t>Web Scripts Index</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/alfresco/service/index/family/Bulk%20Filesystem%20Import</t>
+  </si>
+  <si>
+    <t>Web scripts Index Bulk Filesystem Import</t>
+  </si>
+  <si>
+    <t>http://docs.alfresco.com/5.1/pra/1/concepts/cmis-get-document-content.html</t>
+  </si>
+  <si>
+    <t>Getting the contents of a document</t>
+  </si>
+  <si>
+    <t>https://www.iconfinder.com/search/?q=iconset%3Ahawcons+image&amp;price=free&amp;maximum=64</t>
+  </si>
+  <si>
+    <t>Icon Set</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/colemanw/9c9a12aae16a4bfe2678de86b661d922</t>
+  </si>
+  <si>
+    <t>mimetype function</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/10048721/php-passing-a-variable-with-header-redirect</t>
+  </si>
+  <si>
+    <t>php passing a variable with header redirect</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/27896537/using-php-curl-to-submit-form-and-get-results</t>
+  </si>
+  <si>
+    <t>php curl submit form and get results</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/13583878/sample-rest-url-to-retrieve-content-from-alfresco</t>
+  </si>
+  <si>
+    <t>Sample rest url to retrieve content from alfresco</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -116,7 +263,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -215,11 +362,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -258,8 +428,25 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -595,17 +782,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E143"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:F143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="2.5703125" customWidth="1"/>
     <col min="2" max="2" width="74" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" customWidth="1"/>
     <col min="5" max="5" width="50" customWidth="1"/>
   </cols>
   <sheetData>
@@ -750,136 +938,314 @@
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="3"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="B11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="9">
+        <v>42955</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0.51666666666666672</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="B12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="9">
+        <v>42955</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0.5180555555555556</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="B13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="9">
+        <v>42955</v>
+      </c>
+      <c r="D13" s="10">
+        <v>0.51944444444444449</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="B14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="9">
+        <v>42955</v>
+      </c>
+      <c r="D14" s="10">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="B15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="9">
+        <v>42955</v>
+      </c>
+      <c r="D15" s="10">
+        <v>0.5229166666666667</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
+      <c r="B16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="9">
+        <v>42955</v>
+      </c>
+      <c r="D16" s="10">
+        <v>0.54513888888888895</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="9">
+        <v>42955</v>
+      </c>
+      <c r="D17" s="10">
+        <v>0.5541666666666667</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="9">
+        <v>42956</v>
+      </c>
+      <c r="D18" s="10">
+        <v>0.60763888888888895</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="14"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="9">
+        <v>42956</v>
+      </c>
+      <c r="D19" s="16">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="9">
+        <v>42957</v>
+      </c>
+      <c r="D20" s="10">
+        <v>0.77430555555555547</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="9">
+        <v>42957</v>
+      </c>
+      <c r="D21" s="10">
+        <v>0.77708333333333324</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="9">
+        <v>42958</v>
+      </c>
+      <c r="D22" s="18">
+        <v>0.62361111111111112</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="14"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="9">
+        <v>42958</v>
+      </c>
+      <c r="D23" s="10">
+        <v>0.62638888888888888</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="9">
+        <v>42958</v>
+      </c>
+      <c r="D24" s="10">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="9">
+        <v>42958</v>
+      </c>
+      <c r="D25" s="10">
+        <v>0.67222222222222217</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="9">
+        <v>42968</v>
+      </c>
+      <c r="D26" s="13">
+        <v>0.35347222222222219</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="9">
+        <v>42969</v>
+      </c>
+      <c r="D27" s="10">
+        <v>0.65416666666666667</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="9">
+        <v>42973</v>
+      </c>
+      <c r="D28" s="10">
+        <v>0.42569444444444443</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="9">
+        <v>42973</v>
+      </c>
+      <c r="D29" s="10">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="9">
+        <v>42975</v>
+      </c>
+      <c r="D30" s="10">
+        <v>0.56111111111111112</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="9">
+        <v>42976</v>
+      </c>
+      <c r="D31" s="10">
+        <v>0.7583333333333333</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="9">
+        <v>42976</v>
+      </c>
+      <c r="D32" s="10">
+        <v>0.90555555555555556</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="3"/>
@@ -1554,7 +1920,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1566,7 +1932,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Webseitenlinks.xlsx
+++ b/Webseitenlinks.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>Link</t>
   </si>
@@ -220,6 +220,24 @@
   </si>
   <si>
     <t>Sample rest url to retrieve content from alfresco</t>
+  </si>
+  <si>
+    <t>https://github.com/fmui/ApacheChemistryInAction/blob/master/chapter9/drupal/libraries/cmis-lib/cmis/cmis_repository_wrapper.php</t>
+  </si>
+  <si>
+    <t>cmis_repository_wrapper.php</t>
+  </si>
+  <si>
+    <t>https://svn.apache.org/repos/asf/chemistry/phpclient/trunk/atom/cmis/cmis_service.php</t>
+  </si>
+  <si>
+    <t>cmis_service.php</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/36717011/how-to-do-file-versioning-when-uploading-files-to-alfresco-using-cmis-php</t>
+  </si>
+  <si>
+    <t>file upload with cmis</t>
   </si>
 </sst>
 </file>
@@ -786,7 +804,7 @@
   <dimension ref="B1:F143"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1247,97 +1265,122 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="9">
+        <v>42984</v>
+      </c>
+      <c r="D33" s="18">
+        <v>0.82430555555555562</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F33" s="14"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="9">
+        <v>42984</v>
+      </c>
+      <c r="D34" s="10">
+        <v>0.8256944444444444</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="9">
+        <v>42984</v>
+      </c>
+      <c r="D35" s="10">
+        <v>0.82638888888888884</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="4"/>

--- a/Webseitenlinks.xlsx
+++ b/Webseitenlinks.xlsx
@@ -1,28 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kionex\Desktop\ImportantStuffDiplomarbeit\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="20115" windowHeight="7935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="20115" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>Link</t>
   </si>
@@ -238,12 +233,18 @@
   </si>
   <si>
     <t>file upload with cmis</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/7755795/how-to-write-file-upload-webscript-in-alfresco</t>
+  </si>
+  <si>
+    <t>uploading files</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -464,7 +465,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -481,9 +482,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -521,9 +522,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -556,26 +557,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -608,26 +592,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -800,11 +767,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1309,10 +1276,18 @@
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
+      <c r="B36" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="9">
+        <v>42986</v>
+      </c>
+      <c r="D36" s="10">
+        <v>0.54791666666666672</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="3"/>
@@ -1963,7 +1938,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1975,7 +1950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Webseitenlinks.xlsx
+++ b/Webseitenlinks.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kionex\Desktop\ImportantStuffDiplomarbeit\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="20115" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="20115" windowHeight="7935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>Link</t>
   </si>
@@ -239,12 +244,18 @@
   </si>
   <si>
     <t>uploading files</t>
+  </si>
+  <si>
+    <t>https://v4-alpha.getbootstrap.com/content/tables/</t>
+  </si>
+  <si>
+    <t>bootstrap tables attributes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -465,7 +476,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -482,9 +493,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -522,9 +533,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -557,9 +568,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -592,9 +620,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -767,11 +812,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F143"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1290,10 +1335,18 @@
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
+      <c r="B37" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="9">
+        <v>42989</v>
+      </c>
+      <c r="D37" s="10">
+        <v>0.6430555555555556</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="3"/>
@@ -1938,7 +1991,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1950,7 +2003,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Webseitenlinks.xlsx
+++ b/Webseitenlinks.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kionex\Desktop\ImportantStuffDiplomarbeit\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="20115" windowHeight="7935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="20115" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -22,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>Link</t>
   </si>
@@ -250,12 +245,30 @@
   </si>
   <si>
     <t>bootstrap tables attributes</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/5224790/curl-post-format-for-curlopt-postfields</t>
+  </si>
+  <si>
+    <t>curl post format for curlopt_postfields</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/4223977/send-file-via-curl-from-form-post-in-php</t>
+  </si>
+  <si>
+    <t>send file via curl from form</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/11079135/how-to-post-json-data-with-php-curl</t>
+  </si>
+  <si>
+    <t>posting json data with curl</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -476,7 +489,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -493,9 +506,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -533,9 +546,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -568,26 +581,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -620,26 +616,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -812,11 +791,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F143"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1349,22 +1328,46 @@
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
+      <c r="B38" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="9">
+        <v>43000</v>
+      </c>
+      <c r="D38" s="10">
+        <v>0.41944444444444445</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
+      <c r="B39" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="9">
+        <v>43000</v>
+      </c>
+      <c r="D39" s="10">
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
+      <c r="B40" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="9">
+        <v>43000</v>
+      </c>
+      <c r="D40" s="10">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="3"/>
@@ -1991,7 +1994,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2003,7 +2006,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Webseitenlinks.xlsx
+++ b/Webseitenlinks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="20115" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="180" windowWidth="20115" windowHeight="7875"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>Link</t>
   </si>
@@ -263,6 +263,18 @@
   </si>
   <si>
     <t>posting json data with curl</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/11719495/php-warning-post-content-length-of-8978294-bytes-exceeds-the-limit-of-8388608-b</t>
+  </si>
+  <si>
+    <t>post_max_size erhöhen</t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/jquery/jquery_ajax_load.asp</t>
+  </si>
+  <si>
+    <t>ajax load()</t>
   </si>
 </sst>
 </file>
@@ -795,7 +807,7 @@
   <dimension ref="B1:F143"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1370,16 +1382,32 @@
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
+      <c r="B41" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" s="9">
+        <v>43007</v>
+      </c>
+      <c r="D41" s="10">
+        <v>0.34930555555555554</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
+      <c r="B42" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" s="9">
+        <v>43007</v>
+      </c>
+      <c r="D42" s="10">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>

--- a/Webseitenlinks.xlsx
+++ b/Webseitenlinks.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>Link</t>
   </si>
@@ -275,6 +275,18 @@
   </si>
   <si>
     <t>ajax load()</t>
+  </si>
+  <si>
+    <t>http://php.net/manual/de/function.substr.php</t>
+  </si>
+  <si>
+    <t>substr()</t>
+  </si>
+  <si>
+    <t>http://php.net/manual/de/function.strrchr.php</t>
+  </si>
+  <si>
+    <t>strrchr()</t>
   </si>
 </sst>
 </file>
@@ -444,7 +456,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -497,6 +509,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -806,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1410,16 +1425,32 @@
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
+      <c r="B43" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="9">
+        <v>43014</v>
+      </c>
+      <c r="D43" s="10">
+        <v>0.48680555555555555</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
+      <c r="B44" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" s="9">
+        <v>43014</v>
+      </c>
+      <c r="D44" s="10">
+        <v>0.53541666666666665</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" s="3"/>
@@ -2016,8 +2047,11 @@
       <c r="E143" s="4"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B44" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Webseitenlinks.xlsx
+++ b/Webseitenlinks.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
     <t>Link</t>
   </si>
@@ -287,6 +287,36 @@
   </si>
   <si>
     <t>strrchr()</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/386281/how-to-implement-select-all-check-box-in-html</t>
+  </si>
+  <si>
+    <t>check-all checkbox</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/4495626/making-custom-right-click-context-menus-for-my-web-app</t>
+  </si>
+  <si>
+    <t>making custom right click menu</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/7558648/redirecting-a-page-using-javascript-like-phps-header-location</t>
+  </si>
+  <si>
+    <t>redirect in javascript</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/21912226/how-can-i-find-current-element-on-mouseover-using-jquery</t>
+  </si>
+  <si>
+    <t>id of element when hovering with mouse</t>
+  </si>
+  <si>
+    <t>http://jsfiddle.net/ankur1990/kUyE7/</t>
+  </si>
+  <si>
+    <t>see above ---^</t>
   </si>
 </sst>
 </file>
@@ -822,7 +852,7 @@
   <dimension ref="B1:F143"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1453,34 +1483,74 @@
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
+      <c r="B45" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" s="9">
+        <v>43021</v>
+      </c>
+      <c r="D45" s="10">
+        <v>0.35555555555555557</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
+      <c r="B46" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" s="9">
+        <v>43021</v>
+      </c>
+      <c r="D46" s="10">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
+      <c r="B47" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" s="9">
+        <v>43021</v>
+      </c>
+      <c r="D47" s="10">
+        <v>0.40902777777777777</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
+      <c r="B48" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" s="9">
+        <v>43021</v>
+      </c>
+      <c r="D48" s="10">
+        <v>0.41180555555555554</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
+      <c r="B49" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C49" s="9">
+        <v>43021</v>
+      </c>
+      <c r="D49" s="10">
+        <v>0.41180555555555554</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50" s="3"/>

--- a/Webseitenlinks.xlsx
+++ b/Webseitenlinks.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="180" windowWidth="20115" windowHeight="7875"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="20115" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
   <si>
     <t>Link</t>
   </si>
@@ -317,6 +317,90 @@
   </si>
   <si>
     <t>see above ---^</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/31460438/alfresco-5-update-node-properties-via-rest-service</t>
+  </si>
+  <si>
+    <t>update node properties (metadata) via rest service</t>
+  </si>
+  <si>
+    <t>http://php.net/manual/de/function.str-replace.php</t>
+  </si>
+  <si>
+    <t>string-zeichen ersetzen</t>
+  </si>
+  <si>
+    <t>http://docs.alfresco.com/4.2/tasks/ws-hello-world-create.html</t>
+  </si>
+  <si>
+    <t>webscript Einführung</t>
+  </si>
+  <si>
+    <t>https://blog.hubspot.com/marketing/how-to-reduce-your-websites-page-speed</t>
+  </si>
+  <si>
+    <t>https://legacy.datatables.net/ref#bSortCellsTop</t>
+  </si>
+  <si>
+    <t>Sortiericons von Datatables auf erster Headerrow</t>
+  </si>
+  <si>
+    <t>http://php.net/manual/de/function.date.php</t>
+  </si>
+  <si>
+    <t>Timestamp in Datum umwandeln</t>
+  </si>
+  <si>
+    <t>reduce website page loading speed</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/10305552/how-to-make-work-datatables-with-natural-sort-plugin</t>
+  </si>
+  <si>
+    <t>DataTables natural sorting</t>
+  </si>
+  <si>
+    <t>Directory Upload</t>
+  </si>
+  <si>
+    <t>http://www.w3bees.com/2013/03/directory-upload-using-html-5-and-php.html</t>
+  </si>
+  <si>
+    <t>http://php.net/manual/de/function.unlink.php</t>
+  </si>
+  <si>
+    <t>unlink (löschen von files)</t>
+  </si>
+  <si>
+    <t>http://php.net/manual/de/function.move-uploaded-file.php</t>
+  </si>
+  <si>
+    <t>move_uploaded_file</t>
+  </si>
+  <si>
+    <t>https://www.kollermedia.at/2007/11/14/samtliche-files-aus-einem-ordner-mit-php-loschen/</t>
+  </si>
+  <si>
+    <t>files mit php löschen</t>
+  </si>
+  <si>
+    <t>http://php.net/manual/de/ziparchive.extractto.php</t>
+  </si>
+  <si>
+    <t>Zip entpacken</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/11613840/remove-all-files-folders-and-their-subfolders-with-php</t>
+  </si>
+  <si>
+    <t>Ordner rekursiv löschen</t>
+  </si>
+  <si>
+    <t>https://datatables.net/plug-ins/sorting/file-size#Example</t>
+  </si>
+  <si>
+    <t>Größe von Files richtig sortieren</t>
   </si>
 </sst>
 </file>
@@ -486,7 +570,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -542,6 +626,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -851,8 +938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -915,7 +1002,7 @@
       <c r="D4" s="10">
         <v>0.55069444444444449</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="21" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1211,7 +1298,7 @@
       <c r="D25" s="10">
         <v>0.67222222222222217</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="21" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1553,88 +1640,200 @@
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
+      <c r="B50" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C50" s="9">
+        <v>43042</v>
+      </c>
+      <c r="D50" s="10">
+        <v>0.43263888888888885</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
+      <c r="B51" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51" s="9">
+        <v>43061</v>
+      </c>
+      <c r="D51" s="10">
+        <v>0.55069444444444449</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
+      <c r="B52" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C52" s="9">
+        <v>43061</v>
+      </c>
+      <c r="D52" s="10">
+        <v>0.57777777777777783</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
+      <c r="B53" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C53" s="9">
+        <v>43063</v>
+      </c>
+      <c r="D53" s="10">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
+      <c r="B54" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C54" s="9">
+        <v>43063</v>
+      </c>
+      <c r="D54" s="10">
+        <v>0.43472222222222223</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
+      <c r="B55" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C55" s="9">
+        <v>43084</v>
+      </c>
+      <c r="D55" s="10">
+        <v>0.45694444444444443</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
+      <c r="B56" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C56" s="9">
+        <v>43091</v>
+      </c>
+      <c r="D56" s="10">
+        <v>0.4375</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
+      <c r="B57" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C57" s="9">
+        <v>43112</v>
+      </c>
+      <c r="D57" s="10">
+        <v>0.49513888888888885</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
+      <c r="B58" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C58" s="9">
+        <v>43112</v>
+      </c>
+      <c r="D58" s="10">
+        <v>0.58124999999999993</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
+      <c r="B59" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C59" s="9">
+        <v>43112</v>
+      </c>
+      <c r="D59" s="10">
+        <v>0.58472222222222225</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
+      <c r="B60" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C60" s="9">
+        <v>43112</v>
+      </c>
+      <c r="D60" s="10">
+        <v>0.62708333333333333</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
+      <c r="B61" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C61" s="9">
+        <v>43133</v>
+      </c>
+      <c r="D61" s="10">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
+      <c r="B62" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C62" s="9">
+        <v>43133</v>
+      </c>
+      <c r="D62" s="10">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
+      <c r="B63" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C63" s="9">
+        <v>43133</v>
+      </c>
+      <c r="D63" s="10">
+        <v>0.66736111111111107</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B64" s="3"/>
